--- a/published-data/fonds-solidarite/fds-2022-05-19/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-19/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -2747,13 +2747,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3710</v>
+        <v>3711</v>
       </c>
       <c r="D57" t="n">
         <v>623</v>
       </c>
       <c r="E57" t="n">
-        <v>138291366</v>
+        <v>138344178</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>151105</v>
+        <v>151109</v>
       </c>
       <c r="D91" t="n">
         <v>24834</v>
       </c>
       <c r="E91" t="n">
-        <v>482131030</v>
+        <v>482222453</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>409024</v>
+        <v>409037</v>
       </c>
       <c r="D92" t="n">
         <v>70904</v>
       </c>
       <c r="E92" t="n">
-        <v>1593738637</v>
+        <v>1593885439</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>209507</v>
+        <v>209517</v>
       </c>
       <c r="D93" t="n">
         <v>34260</v>
       </c>
       <c r="E93" t="n">
-        <v>1307872027</v>
+        <v>1308009836</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4264,13 +4264,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>94155</v>
+        <v>94165</v>
       </c>
       <c r="D94" t="n">
         <v>13795</v>
       </c>
       <c r="E94" t="n">
-        <v>915983125</v>
+        <v>916632725</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4305,13 +4305,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>50729</v>
+        <v>50733</v>
       </c>
       <c r="D95" t="n">
         <v>6982</v>
       </c>
       <c r="E95" t="n">
-        <v>930886080</v>
+        <v>930961320</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>17247</v>
+        <v>17249</v>
       </c>
       <c r="D96" t="n">
         <v>2565</v>
       </c>
       <c r="E96" t="n">
-        <v>789598588</v>
+        <v>789741036</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>135225</v>
+        <v>135227</v>
       </c>
       <c r="D104" t="n">
         <v>23286</v>
       </c>
       <c r="E104" t="n">
-        <v>272135240</v>
+        <v>272141544</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4715,13 +4715,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>8170</v>
+        <v>8171</v>
       </c>
       <c r="D105" t="n">
         <v>1913</v>
       </c>
       <c r="E105" t="n">
-        <v>16872184</v>
+        <v>16876204</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -4756,13 +4756,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>18336</v>
+        <v>18338</v>
       </c>
       <c r="D106" t="n">
         <v>4979</v>
       </c>
       <c r="E106" t="n">
-        <v>41281761</v>
+        <v>41287345</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -6191,13 +6191,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>80470</v>
+        <v>80472</v>
       </c>
       <c r="D141" t="n">
         <v>15006</v>
       </c>
       <c r="E141" t="n">
-        <v>280703451</v>
+        <v>280708050</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -7954,13 +7954,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>68734</v>
+        <v>68735</v>
       </c>
       <c r="D184" t="n">
         <v>13881</v>
       </c>
       <c r="E184" t="n">
-        <v>134170601</v>
+        <v>134180601</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
